--- a/data/trans_dic/P36BPD07_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Estudios-trans_dic.xlsx
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9137024548663254</v>
+        <v>0.08629754513367464</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7431518053505468</v>
+        <v>0.2568481946494532</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9414114434658495</v>
+        <v>0.05858855653415052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7732457433212014</v>
+        <v>0.2267542566787986</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.9294767634983434</v>
+        <v>0.07052323650165657</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7608418745392386</v>
+        <v>0.2391581254607613</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8919908300726459</v>
+        <v>0.06526265554287111</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7069478280049303</v>
+        <v>0.2193656876078092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.923634398244111</v>
+        <v>0.04456433680425549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7473255726025618</v>
+        <v>0.2026088269736854</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9170649002288651</v>
+        <v>0.0591419135442325</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7392009915902237</v>
+        <v>0.2190994790007105</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9347373444571289</v>
+        <v>0.1080091699273541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7806343123921907</v>
+        <v>0.2930521719950698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9554356631957445</v>
+        <v>0.07636560175588891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7973911730263147</v>
+        <v>0.2526744273974381</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9408580864557675</v>
+        <v>0.082935099771135</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7809005209992895</v>
+        <v>0.2607990084097763</v>
       </c>
     </row>
     <row r="7">
@@ -691,22 +691,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8095953859882601</v>
+        <v>0.19040461401174</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6755553488793089</v>
+        <v>0.3244446511206911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8255798547700328</v>
+        <v>0.1744201452299672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.734366839831585</v>
+        <v>0.265633160168415</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8174126754868226</v>
+        <v>0.1825873245131773</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7045518899078009</v>
+        <v>0.2954481100921991</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7925877385533683</v>
+        <v>0.1720551161723978</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6518929463542786</v>
+        <v>0.2993222376380321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8077572791586823</v>
+        <v>0.1583615579409123</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7156786979218943</v>
+        <v>0.248498859662201</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8039615378717514</v>
+        <v>0.171400153371725</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6882408301326883</v>
+        <v>0.2812233768796207</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8279448838276022</v>
+        <v>0.2074122614466317</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7006777623619677</v>
+        <v>0.3481070536457213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8416384420590878</v>
+        <v>0.1922427208413178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7515011403377991</v>
+        <v>0.2843213020781059</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8285998466282749</v>
+        <v>0.1960384621282485</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7187766231203792</v>
+        <v>0.3117591698673117</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8778772863373404</v>
+        <v>0.1221227136626595</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8123409634654559</v>
+        <v>0.1876590365345441</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8853769258432963</v>
+        <v>0.1146230741567037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8348914540607852</v>
+        <v>0.1651085459392148</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8816415136176911</v>
+        <v>0.118358486382309</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.823783225899366</v>
+        <v>0.176216774100634</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8487851069377434</v>
+        <v>0.09496963887503367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7752046824520262</v>
+        <v>0.1594049074100806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8567511575914473</v>
+        <v>0.08877276030218396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8092740549047134</v>
+        <v>0.1410077189807832</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8614532334221164</v>
+        <v>0.09908650892028427</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8014812619842091</v>
+        <v>0.1575972527170385</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9050303611249659</v>
+        <v>0.1512148930622562</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8405950925899195</v>
+        <v>0.2247953175479739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9112272396978158</v>
+        <v>0.1432488424085525</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8589922810192168</v>
+        <v>0.1907259450952868</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9009134910797156</v>
+        <v>0.1385467665778835</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8424027472829614</v>
+        <v>0.1985187380157908</v>
       </c>
     </row>
     <row r="13">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8437923620836086</v>
+        <v>0.1562076379163913</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7143253588739947</v>
+        <v>0.2856746411260054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8674204095056172</v>
+        <v>0.1325795904943828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7627546161884788</v>
+        <v>0.2372453838115209</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8558739364140271</v>
+        <v>0.1441260635859729</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7392289114208566</v>
+        <v>0.2607710885791434</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8306610742901324</v>
+        <v>0.1436728458495532</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6967319299208199</v>
+        <v>0.2694166800426765</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8567355483084205</v>
+        <v>0.1208684053539452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7503962173112453</v>
+        <v>0.2241394952388053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8466220897803887</v>
+        <v>0.1363297314654682</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7284379475025617</v>
+        <v>0.249848385022332</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8563271541504468</v>
+        <v>0.1693389257098676</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7305833199573236</v>
+        <v>0.3032680700791803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8791315946460548</v>
+        <v>0.1432644516915795</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7758605047611946</v>
+        <v>0.2496037826887545</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8636702685345319</v>
+        <v>0.1533779102196114</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7501516149776684</v>
+        <v>0.2715620524974383</v>
       </c>
     </row>
     <row r="16">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>691</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>522</v>
+        <v>167</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>830</v>
+        <v>55</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1140</v>
+        <v>287</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1521</v>
+        <v>117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>1662</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
@@ -1082,22 +1082,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>680880</v>
+        <v>64308</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>428348</v>
+        <v>148046</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>927224</v>
+        <v>57706</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>635637</v>
+        <v>186401</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1608104</v>
+        <v>122013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1063986</v>
+        <v>334446</v>
       </c>
     </row>
     <row r="6">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>664701</v>
+        <v>48633</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>407480</v>
+        <v>126441</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>909715</v>
+        <v>43893</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>614330</v>
+        <v>166552</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1586630</v>
+        <v>102322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1033722</v>
+        <v>306396</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>696555</v>
+        <v>80487</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>449953</v>
+        <v>168914</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>941037</v>
+        <v>75215</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>655486</v>
+        <v>207708</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1627795</v>
+        <v>143487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1092036</v>
+        <v>364710</v>
       </c>
     </row>
     <row r="8">
@@ -1164,22 +1164,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1574</v>
+        <v>368</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1383</v>
+        <v>606</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1558</v>
+        <v>340</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2239</v>
+        <v>675</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>3132</v>
+        <v>708</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>3622</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="9">
@@ -1190,22 +1190,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1672146</v>
+        <v>393263</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1504831</v>
+        <v>722716</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1632109</v>
+        <v>344816</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1590934</v>
+        <v>575468</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3304254</v>
+        <v>738079</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3095765</v>
+        <v>1298184</v>
       </c>
     </row>
     <row r="10">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1637018</v>
+        <v>355364</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1452122</v>
+        <v>666754</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1596876</v>
+        <v>313069</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1550448</v>
+        <v>538348</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3249880</v>
+        <v>692856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3024095</v>
+        <v>1235681</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1710045</v>
+        <v>428391</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1560793</v>
+        <v>775425</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1663856</v>
+        <v>380049</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1628054</v>
+        <v>615954</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3349477</v>
+        <v>792453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3158268</v>
+        <v>1369854</v>
       </c>
     </row>
     <row r="12">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>433</v>
+        <v>65</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>556</v>
+        <v>125</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>462</v>
+        <v>63</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>855</v>
+        <v>146</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>895</v>
+        <v>128</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1411</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>477369</v>
+        <v>66408</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>578051</v>
+        <v>133536</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>485162</v>
+        <v>62810</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>611963</v>
+        <v>121022</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>962531</v>
+        <v>129218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1190014</v>
+        <v>254558</v>
       </c>
     </row>
     <row r="14">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>461550</v>
+        <v>51642</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>551626</v>
+        <v>113430</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>469476</v>
+        <v>48645</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>593186</v>
+        <v>103357</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>940491</v>
+        <v>108178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1157797</v>
+        <v>227661</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>492135</v>
+        <v>82227</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>598157</v>
+        <v>159961</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>499327</v>
+        <v>78496</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>629628</v>
+        <v>139799</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>983571</v>
+        <v>151258</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1216911</v>
+        <v>286775</v>
       </c>
     </row>
     <row r="16">
@@ -1380,22 +1380,22 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>2698</v>
+        <v>495</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>2461</v>
+        <v>898</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>2850</v>
+        <v>458</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>4234</v>
+        <v>1108</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>5548</v>
+        <v>953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>6695</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="17">
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>2830394</v>
+        <v>523979</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>2511231</v>
+        <v>1004297</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>3044495</v>
+        <v>465331</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2838534</v>
+        <v>882891</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>5874889</v>
+        <v>989310</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>5349765</v>
+        <v>1887188</v>
       </c>
     </row>
     <row r="18">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2786347</v>
+        <v>481932</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2449381</v>
+        <v>947142</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3006993</v>
+        <v>424227</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2792543</v>
+        <v>834118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5811383</v>
+        <v>935794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5271671</v>
+        <v>1808141</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2872441</v>
+        <v>568026</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2568386</v>
+        <v>1066147</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3085599</v>
+        <v>502833</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2887307</v>
+        <v>928882</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5928405</v>
+        <v>1052816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5428812</v>
+        <v>1965282</v>
       </c>
     </row>
     <row r="20">

--- a/data/trans_dic/P36BPD07_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Estudios-trans_dic.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -977,7 +977,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P36BPD07_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Estudios-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.07052323650165657</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2391581254607613</v>
+        <v>0.2391581254607612</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06526265554287111</v>
+        <v>0.06739426796894445</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2193656876078092</v>
+        <v>0.222093416073698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04456433680425549</v>
+        <v>0.0446588697500197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2026088269736854</v>
+        <v>0.2026661316936781</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0591419135442325</v>
+        <v>0.05936817921396475</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2190994790007105</v>
+        <v>0.2185842488402167</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1080091699273541</v>
+        <v>0.1110504759512388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2930521719950698</v>
+        <v>0.2933435894754215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07636560175588891</v>
+        <v>0.07727181991228965</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2526744273974381</v>
+        <v>0.2514445505729819</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.082935099771135</v>
+        <v>0.08501816424223149</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2607990084097763</v>
+        <v>0.2612577046784331</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1720551161723978</v>
+        <v>0.173125691286026</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2993222376380321</v>
+        <v>0.3029199513175741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1583615579409123</v>
+        <v>0.1569350811784661</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.248498859662201</v>
+        <v>0.2481027422202894</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.171400153371725</v>
+        <v>0.1713080614680594</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2812233768796207</v>
+        <v>0.2813023106840272</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2074122614466317</v>
+        <v>0.2069771067535356</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3481070536457213</v>
+        <v>0.3489036663257387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1922427208413178</v>
+        <v>0.1923744383019692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2843213020781059</v>
+        <v>0.2839931261798547</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1960384621282485</v>
+        <v>0.1946535441840312</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3117591698673117</v>
+        <v>0.3124055151739527</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09496963887503367</v>
+        <v>0.09760300713727611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1594049074100806</v>
+        <v>0.1589160120351907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08877276030218396</v>
+        <v>0.08924404911965908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1410077189807832</v>
+        <v>0.1390517174774063</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09908650892028427</v>
+        <v>0.09907922782615787</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1575972527170385</v>
+        <v>0.1556148005984384</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1512148930622562</v>
+        <v>0.1557931107145651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2247953175479739</v>
+        <v>0.2197769640980501</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1432488424085525</v>
+        <v>0.1448175995024482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1907259450952868</v>
+        <v>0.1922569673885179</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1385467665778835</v>
+        <v>0.1378924937832298</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1985187380157908</v>
+        <v>0.1976799767426315</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.1325795904943828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2372453838115209</v>
+        <v>0.237245383811521</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1441260635859729</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2607710885791434</v>
+        <v>0.2607710885791433</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1436728458495532</v>
+        <v>0.1436622850221168</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2694166800426765</v>
+        <v>0.2690919730438621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1208684053539452</v>
+        <v>0.1209957475651841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2241394952388053</v>
+        <v>0.2249722506575905</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1363297314654682</v>
+        <v>0.1361889667773618</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.249848385022332</v>
+        <v>0.2493923677162886</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1693389257098676</v>
+        <v>0.1694560845393181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3032680700791803</v>
+        <v>0.3024120230403893</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1432644516915795</v>
+        <v>0.1434287087493719</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2496037826887545</v>
+        <v>0.2509388061688787</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1533779102196114</v>
+        <v>0.1530358731102781</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2715620524974383</v>
+        <v>0.2713803787651051</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>48633</v>
+        <v>50221</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>126441</v>
+        <v>128013</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43893</v>
+        <v>43986</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>166552</v>
+        <v>166599</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>102322</v>
+        <v>102714</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>306396</v>
+        <v>305675</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>80487</v>
+        <v>82753</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>168914</v>
+        <v>169081</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75215</v>
+        <v>76107</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>207708</v>
+        <v>206697</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>143487</v>
+        <v>147091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>364710</v>
+        <v>365351</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>355364</v>
+        <v>357575</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>666754</v>
+        <v>674768</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>313069</v>
+        <v>310249</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>538348</v>
+        <v>537490</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>692856</v>
+        <v>692484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1235681</v>
+        <v>1236028</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>428391</v>
+        <v>427492</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>775425</v>
+        <v>777199</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>380049</v>
+        <v>380310</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>615954</v>
+        <v>615243</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>792453</v>
+        <v>786854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1369854</v>
+        <v>1372694</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>51642</v>
+        <v>53074</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>113430</v>
+        <v>113083</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48645</v>
+        <v>48903</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103357</v>
+        <v>101923</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108178</v>
+        <v>108170</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>227661</v>
+        <v>224797</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>82227</v>
+        <v>84717</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>159961</v>
+        <v>156390</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>78496</v>
+        <v>79356</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>139799</v>
+        <v>140921</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>151258</v>
+        <v>150544</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>286775</v>
+        <v>285563</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>481932</v>
+        <v>481897</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>947142</v>
+        <v>946000</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>424227</v>
+        <v>424674</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>834118</v>
+        <v>837217</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>935794</v>
+        <v>934828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1808141</v>
+        <v>1804841</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>568026</v>
+        <v>568419</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1066147</v>
+        <v>1063138</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>502833</v>
+        <v>503410</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>928882</v>
+        <v>933850</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1052816</v>
+        <v>1050469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1965282</v>
+        <v>1963967</v>
       </c>
     </row>
     <row r="20">
